--- a/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem5/word_level_predictions.xlsx
+++ b/experiments/evaluation/llm-based/albert-base-v2_15/rem-100_remove/rem5/word_level_predictions.xlsx
@@ -507,12 +507,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Compass</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -559,12 +559,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -572,12 +572,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -611,12 +611,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>velocity</t>
+          <t>Compass</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -663,12 +663,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ensure</t>
+          <t>Error</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -676,12 +676,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G5" t="b">
@@ -689,7 +689,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -697,7 +697,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K5" t="b">
@@ -715,12 +715,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>Compass</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -728,12 +728,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -741,7 +741,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -749,7 +749,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K6" t="b">
@@ -767,12 +767,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>aircraft</t>
+          <t>data</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -780,12 +780,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G7" t="b">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -801,7 +801,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K7" t="b">
@@ -819,12 +819,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>remains</t>
+          <t>error</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -832,12 +832,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G8" t="b">
@@ -845,7 +845,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -853,7 +853,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K8" t="b">
@@ -871,12 +871,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>Please</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -884,12 +884,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G9" t="b">
@@ -923,12 +923,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>contact</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -975,12 +975,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>line</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1027,12 +1027,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>Support</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1040,12 +1040,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G12" t="b">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sight</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1092,28 +1092,28 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K13" t="b">
@@ -1127,29 +1127,29 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>12</v>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G14" t="b">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I14" t="b">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K14" t="b">
@@ -1179,29 +1179,29 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fly</t>
+          <t>signal</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" t="b">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K15" t="b">
@@ -1231,29 +1231,29 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G16" t="b">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K16" t="b">
@@ -1283,237 +1283,237 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Fly</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>wind</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>velocity</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>in</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G21" t="b">
@@ -1543,20 +1543,20 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>Altitude</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1595,29 +1595,29 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>caution</t>
+          <t>Zone</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G23" t="b">
@@ -1647,29 +1647,29 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G24" t="b">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K24" t="b">
@@ -1699,29 +1699,29 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>land</t>
+          <t>altitude</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G25" t="b">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K25" t="b">
@@ -1751,29 +1751,29 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>set</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K26" t="b">
@@ -1803,29 +1803,29 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>to</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K27" t="b">
@@ -1855,29 +1855,29 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>safe</t>
+          <t>nnn</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K28" t="b">
@@ -1907,45 +1907,45 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
         <v>0</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>27</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K29" t="b">
@@ -1959,29 +1959,29 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ASAP</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>28</v>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K30" t="b">
@@ -2011,7 +2011,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2020,36 +2020,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K31" t="b">
@@ -2063,29 +2063,29 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Motor</t>
+          <t>velocity</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G32" t="b">
@@ -2115,29 +2115,29 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>speed</t>
+          <t>Ensure</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K33" t="b">
@@ -2167,29 +2167,29 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>the</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G34" t="b">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K34" t="b">
@@ -2219,29 +2219,29 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>aircraft</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G35" t="b">
@@ -2271,20 +2271,20 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>remains</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2323,20 +2323,20 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>return</t>
+          <t>within</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2375,20 +2375,20 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>your</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2427,20 +2427,20 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>line</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2479,29 +2479,29 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>promptly</t>
+          <t>of</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G40" t="b">
@@ -2531,29 +2531,29 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>After</t>
+          <t>sight</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G41" t="b">
@@ -2583,20 +2583,20 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>powering</t>
+          <t>and</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2635,20 +2635,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>off</t>
+          <t>fly</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2687,20 +2687,20 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>with</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2739,29 +2739,29 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>aircraft,</t>
+          <t>caution</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G45" t="b">
@@ -2790,186 +2790,186 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>14</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="A46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>15</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="A47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>wind</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>16</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="A48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>velocity</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G49" t="b">
@@ -2999,20 +2999,20 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>with</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3051,20 +3051,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>beeping</t>
+          <t>caution</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3103,29 +3103,29 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ESC</t>
+          <t>and</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G52" t="b">
@@ -3155,29 +3155,29 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>If</t>
+          <t>land</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G53" t="b">
@@ -3207,20 +3207,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>in</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3259,20 +3259,20 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>issue</t>
+          <t>a</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3311,20 +3311,20 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>persists,</t>
+          <t>safe</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3363,20 +3363,20 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>contact</t>
+          <t>place</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3415,29 +3415,29 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>ASAP</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G58" t="b">
@@ -3467,45 +3467,45 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>High wind velocity Ensure the aircraft remains within your line of sight and fly with caution High wind velocity Fly with caution and land in a safe place ASAP .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K59" t="b">
@@ -3519,7 +3519,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3528,36 +3528,36 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Motor</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="I60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K60" t="b">
@@ -3571,29 +3571,29 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Compass</t>
+          <t>speed</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -3623,20 +3623,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>2</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>1</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3675,29 +3675,29 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Compass</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G63" t="b">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I63" t="b">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K63" t="b">
@@ -3727,29 +3727,29 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>or</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K64" t="b">
@@ -3779,29 +3779,29 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Compass</t>
+          <t>return</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I65" t="b">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K65" t="b">
@@ -3831,29 +3831,29 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>to</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G66" t="b">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I66" t="b">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K66" t="b">
@@ -3883,29 +3883,29 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>home</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G67" t="b">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I67" t="b">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K67" t="b">
@@ -3935,29 +3935,29 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Please</t>
+          <t>promptly</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G68" t="b">
@@ -3987,29 +3987,29 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>contact</t>
+          <t>After</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G69" t="b">
@@ -4039,20 +4039,20 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>powering</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -4091,29 +4091,29 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Support</t>
+          <t>off</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G71" t="b">
@@ -4143,45 +4143,45 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Compass Error Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>the</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K72" t="b">
@@ -4199,25 +4199,25 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GPS</t>
+          <t>aircraft,</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G73" t="b">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I73" t="b">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K73" t="b">
@@ -4251,25 +4251,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>signal</t>
+          <t>replace</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G74" t="b">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I74" t="b">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K74" t="b">
@@ -4303,25 +4303,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>the</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G75" t="b">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I75" t="b">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K75" t="b">
@@ -4355,25 +4355,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>propeller</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G76" t="b">
@@ -4407,16 +4407,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>on</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4459,25 +4459,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>caution</t>
+          <t>the</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4511,25 +4511,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Aircraft</t>
+          <t>beeping</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4563,25 +4563,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>ESC</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G80" t="b">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Altitude</t>
+          <t>If</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G81" t="b">
@@ -4667,25 +4667,25 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Zone</t>
+          <t>the</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G82" t="b">
@@ -4719,25 +4719,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>issue</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I83" t="b">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K83" t="b">
@@ -4771,25 +4771,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>altitude</t>
+          <t>persists,</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I84" t="b">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K84" t="b">
@@ -4823,25 +4823,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>contact</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I85" t="b">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K85" t="b">
@@ -4875,25 +4875,25 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>DJI</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G86" t="b">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I86" t="b">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K86" t="b">
@@ -4927,25 +4927,25 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>nnn</t>
+          <t>Support</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G87" t="b">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="I87" t="b">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K87" t="b">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GPS signal weak Fly with caution Aircraft in Altitude Zone Max altitude set to nnn .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
